--- a/artfynd/A 63177-2018.xlsx
+++ b/artfynd/A 63177-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1014,312 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112395253</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78657</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>229497</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Korallblylav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Parmeliella triptophylla</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>333022</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6626740</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112395251</v>
+      </c>
+      <c r="B6" t="n">
+        <v>93216</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2810</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Rhytidiadelphus loreus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Hedw.) Warnst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>333055</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6626785</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112395254</v>
+      </c>
+      <c r="B7" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Påterud, Vrm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>333021</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6626691</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Eda</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Järnskog</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Jan Rees</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 63177-2018.xlsx
+++ b/artfynd/A 63177-2018.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112395253</v>
+        <v>112395251</v>
       </c>
       <c r="B5" t="n">
-        <v>78657</v>
+        <v>93230</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229497</v>
+        <v>2810</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333022</v>
+        <v>333055</v>
       </c>
       <c r="R5" t="n">
-        <v>6626740</v>
+        <v>6626785</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112395251</v>
+        <v>112395254</v>
       </c>
       <c r="B6" t="n">
-        <v>93216</v>
+        <v>89517</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1134,21 +1134,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2810</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>333055</v>
+        <v>333021</v>
       </c>
       <c r="R6" t="n">
-        <v>6626785</v>
+        <v>6626691</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112395254</v>
+        <v>112395253</v>
       </c>
       <c r="B7" t="n">
-        <v>89503</v>
+        <v>78671</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1236,21 +1236,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>333021</v>
+        <v>333022</v>
       </c>
       <c r="R7" t="n">
-        <v>6626691</v>
+        <v>6626740</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 63177-2018.xlsx
+++ b/artfynd/A 63177-2018.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112395251</v>
+        <v>112395254</v>
       </c>
       <c r="B5" t="n">
-        <v>93230</v>
+        <v>89517</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2810</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333055</v>
+        <v>333021</v>
       </c>
       <c r="R5" t="n">
-        <v>6626785</v>
+        <v>6626691</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112395254</v>
+        <v>112395253</v>
       </c>
       <c r="B6" t="n">
-        <v>89517</v>
+        <v>78671</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1134,21 +1134,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>333021</v>
+        <v>333022</v>
       </c>
       <c r="R6" t="n">
-        <v>6626691</v>
+        <v>6626740</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112395253</v>
+        <v>112395251</v>
       </c>
       <c r="B7" t="n">
-        <v>78671</v>
+        <v>93230</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1236,21 +1236,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229497</v>
+        <v>2810</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>333022</v>
+        <v>333055</v>
       </c>
       <c r="R7" t="n">
-        <v>6626740</v>
+        <v>6626785</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
